--- a/Question/FrameWorks/.NET/_B.xlsx
+++ b/Question/FrameWorks/.NET/_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\FrameWorks\.NET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A226E8A7-6940-4F6C-8F07-DB75DC33EC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE60E2F-392F-4C42-8B41-BB08F6990B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Q</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>IN C# does ViewState  used to retain the state of server-side objects between page post backs no</t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.5703125" customWidth="1"/>
+    <col min="1" max="1" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -381,6 +384,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
